--- a/Doccument/HBS-Screen Function List.xlsx
+++ b/Doccument/HBS-Screen Function List.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$66</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -22,7 +22,7 @@
     <author>HelloU</author>
   </authors>
   <commentList>
-    <comment ref="A56" authorId="0">
+    <comment ref="A58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>Definition</t>
   </si>
@@ -178,13 +178,25 @@
     <t>User Update</t>
   </si>
   <si>
-    <t>SYS044</t>
+    <t>SYS060</t>
   </si>
   <si>
-    <t>Data Authorization</t>
+    <t>Data Authorization List</t>
   </si>
   <si>
     <t>A M</t>
+  </si>
+  <si>
+    <t>SYS061</t>
+  </si>
+  <si>
+    <t>Data Authorization Add</t>
+  </si>
+  <si>
+    <t>SYS062</t>
+  </si>
+  <si>
+    <t>Data Authorization Update</t>
   </si>
   <si>
     <t>SYS030</t>
@@ -444,10 +456,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -496,8 +508,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,22 +578,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,102 +646,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -661,7 +673,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +757,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,133 +829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,6 +896,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -895,15 +931,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,23 +953,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,24 +988,24 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,134 +1014,134 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1157,7 +1169,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1481,7 +1492,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFC64"/>
+  <dimension ref="A1:XFC66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34338,7 +34349,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f>B10&amp;"-"&amp;D10</f>
+        <f t="shared" ref="C10:C15" si="0">B10&amp;"-"&amp;D10</f>
         <v>SYS010-Sign Up</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -34357,7 +34368,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f>B11&amp;"-"&amp;D11</f>
+        <f t="shared" si="0"/>
         <v>SYS011-Login</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -34376,7 +34387,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f>B12&amp;"-"&amp;D12</f>
+        <f t="shared" si="0"/>
         <v>SYS012-Change Password</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -34395,7 +34406,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f>B13&amp;"-"&amp;D13</f>
+        <f t="shared" si="0"/>
         <v>SYS013-Logout</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -34414,7 +34425,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f>B14&amp;"-"&amp;D14</f>
+        <f t="shared" si="0"/>
         <v>SYS014-User Profile</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -34433,7 +34444,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f>B15&amp;"-"&amp;D15</f>
+        <f t="shared" si="0"/>
         <v>SYS015-ResetPassword</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -34452,7 +34463,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f t="shared" ref="C16:C44" si="0">B16&amp;"-"&amp;D16</f>
+        <f>B16&amp;"-"&amp;D16</f>
         <v>SYS020-Home</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -34471,7 +34482,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>B17&amp;"-"&amp;D17</f>
         <v>SYS040-Function List</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -34490,7 +34501,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>B18&amp;"-"&amp;D18</f>
         <v>SYS041-Fucntion Add</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -34509,7 +34520,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>B19&amp;"-"&amp;D19</f>
         <v>SYS042-Function Update</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -34528,7 +34539,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>B20&amp;"-"&amp;D20</f>
         <v>SYS043-Function Authorization</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -34547,7 +34558,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>B21&amp;"-"&amp;D21</f>
         <v>SYS050-User List</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -34566,7 +34577,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>B22&amp;"-"&amp;D22</f>
         <v>SYS051-User Add</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -34585,7 +34596,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>B23&amp;"-"&amp;D23</f>
         <v>SYS052-User Update</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -34604,10 +34615,10 @@
         <v>45</v>
       </c>
       <c r="C24" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SYS044-Data Authorization</v>
+        <f>B24&amp;"-"&amp;D24</f>
+        <v>SYS060-Data Authorization List</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -34619,18 +34630,18 @@
       <c r="A25" s="9">
         <v>16</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SYS030-System Setting</v>
+        <f>B25&amp;"-"&amp;D25</f>
+        <v>SYS061-Data Authorization Add</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="H25"/>
     </row>
@@ -34638,727 +34649,765 @@
       <c r="A26" s="9">
         <v>17</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>SYS031-System Information</v>
+        <f>B26&amp;"-"&amp;D26</f>
+        <v>SYS062-Data Authorization Update</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:8">
       <c r="A27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="10" t="str">
+        <f t="shared" ref="C27:C46" si="1">B27&amp;"-"&amp;D27</f>
+        <v>SYS030-System Setting</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST010-City List</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="E27" s="11" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:8">
       <c r="A28" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>SYS031-System Information</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST011-City Add</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="H28"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:8">
       <c r="A29" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST012-City Update</v>
+        <f t="shared" si="1"/>
+        <v>MST010-City List</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H29"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:8">
       <c r="A30" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST020-District List</v>
+        <f t="shared" si="1"/>
+        <v>MST011-City Add</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H30"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:8">
       <c r="A31" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST021-District Add</v>
+        <f t="shared" si="1"/>
+        <v>MST012-City Update</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H31"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:8">
       <c r="A32" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST022-Dictrict Update</v>
+        <f t="shared" si="1"/>
+        <v>MST020-District List</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H32"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:8">
       <c r="A33" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST030-Location List</v>
+        <f t="shared" si="1"/>
+        <v>MST021-District Add</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H33"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:8">
       <c r="A34" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST031-Location Add</v>
+        <f t="shared" si="1"/>
+        <v>MST022-Dictrict Update</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H34"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:8">
       <c r="A35" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST032-Location Update</v>
+        <f t="shared" si="1"/>
+        <v>MST030-Location List</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H35"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:8">
       <c r="A36" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C36" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST040-Hotel List</v>
+        <f t="shared" si="1"/>
+        <v>MST031-Location Add</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H36"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:8">
       <c r="A37" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C37" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST041-Hotel Add</v>
+        <f t="shared" si="1"/>
+        <v>MST032-Location Update</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H37"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:8">
       <c r="A38" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST042-Hotel Update</v>
+        <f t="shared" si="1"/>
+        <v>MST040-Hotel List</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H38"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:8">
       <c r="A39" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST060-Service List</v>
+        <f t="shared" si="1"/>
+        <v>MST041-Hotel Add</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H39"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:8">
       <c r="A40" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C40" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST061-Service Add</v>
+        <f t="shared" si="1"/>
+        <v>MST042-Hotel Update</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H40"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:8">
       <c r="A41" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C41" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST062-Service Update</v>
+        <f t="shared" si="1"/>
+        <v>MST060-Service List</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H41"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:8">
       <c r="A42" s="9">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C42" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST070-Room List</v>
+        <f t="shared" si="1"/>
+        <v>MST061-Service Add</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H42"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:8">
       <c r="A43" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST071-Room Add</v>
+        <f t="shared" si="1"/>
+        <v>MST062-Service Update</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H43"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:8">
       <c r="A44" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>MST072-Room Update</v>
+        <f t="shared" si="1"/>
+        <v>MST070-Room List</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H44"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:8">
       <c r="A45" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C45" s="10" t="str">
-        <f t="shared" ref="C45:C64" si="1">B45&amp;"-"&amp;D45</f>
-        <v>MST100-Feedback List</v>
+        <f t="shared" si="1"/>
+        <v>MST071-Room Add</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
-      <c r="H45" s="16"/>
+      <c r="H45"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:8">
       <c r="A46" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C46" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST101-Feedback Add</v>
+        <v>MST072-Room Update</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>92</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
-      <c r="H46" s="16"/>
+      <c r="H46"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:8">
       <c r="A47" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C47" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>MST102-Feedback Update</v>
+        <f t="shared" ref="C47:C66" si="2">B47&amp;"-"&amp;D47</f>
+        <v>MST100-Feedback List</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>94</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
-      <c r="H47" s="16"/>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:8">
       <c r="A48" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C48" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>TSN010-Booking List</v>
+        <f t="shared" si="2"/>
+        <v>MST101-Feedback Add</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
-      <c r="H48"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:8">
       <c r="A49" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C49" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>TNS011-Booking Add</v>
+        <f t="shared" si="2"/>
+        <v>MST102-Feedback Update</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
-      <c r="H49"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:8">
       <c r="A50" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>TSN010-Booking List</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>TNS012-Booking Update</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="E50" s="11" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="H50"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:8">
       <c r="A51" s="9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C51" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>TNS013-Booking Detail</v>
+        <f t="shared" si="2"/>
+        <v>TNS011-Booking Add</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H51"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:8">
       <c r="A52" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>TNS012-Booking Update</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>TNS021-Request List</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="E52" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>8</v>
       </c>
       <c r="H52"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:8">
       <c r="A53" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>TNS022-Request Add</v>
+        <f t="shared" si="2"/>
+        <v>TNS013-Booking Detail</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H53"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:8">
       <c r="A54" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>TNS021-Request List</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>TNS023-Request Update</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="E54" s="11" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="H54"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:8">
       <c r="A55" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C55" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>RPT010-Report By Condition</v>
+        <f t="shared" si="2"/>
+        <v>TNS022-Request Add</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" s="2" customFormat="1" spans="1:8">
+    <row r="56" s="1" customFormat="1" spans="1:8">
       <c r="A56" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>-Approve Contribute Request</v>
+      <c r="B56" s="10" t="s">
+        <v>114</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="C56" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>TNS023-Request Update</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="H56"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:8">
+      <c r="A57" s="9">
+        <v>46</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="C57" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>RPT010-Report By Condition</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H56" s="20"/>
-    </row>
-    <row r="57" s="2" customFormat="1" spans="1:8">
-      <c r="A57" s="9">
-        <v>48</v>
-      </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>-Disapprove Contribute Request</v>
-      </c>
-      <c r="D57" s="18" t="s">
+      <c r="E57" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H57" s="20"/>
+      <c r="H57"/>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:8">
       <c r="A58" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>-Delete Contribute Request</v>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>-Approve Contribute Request</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>112</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H58" s="20"/>
+      <c r="H58" s="19"/>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:8">
       <c r="A59" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>-Find Nearby Hotels</v>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>-Disapprove Contribute Request</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H59" s="20"/>
+      <c r="H59" s="19"/>
     </row>
     <row r="60" s="2" customFormat="1" spans="1:8">
       <c r="A60" s="9">
+        <v>49</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>-Delete Contribute Request</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H60" s="19"/>
+    </row>
+    <row r="61" s="2" customFormat="1" spans="1:8">
+      <c r="A61" s="9">
+        <v>50</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>-Find Nearby Hotels</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H61" s="19"/>
+    </row>
+    <row r="62" s="2" customFormat="1" spans="1:8">
+      <c r="A62" s="9">
         <v>51</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17" t="str">
-        <f t="shared" si="1"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>-Direct To Hotels</v>
       </c>
-      <c r="D60" s="18" t="s">
-        <v>125</v>
+      <c r="D62" s="17" t="s">
+        <v>129</v>
       </c>
-      <c r="E60" s="19" t="s">
-        <v>124</v>
+      <c r="E62" s="18" t="s">
+        <v>128</v>
       </c>
-      <c r="H60" s="20"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="9">
-        <v>52</v>
-      </c>
-      <c r="C61" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>-Approve Booking Request</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="9">
-        <v>53</v>
-      </c>
-      <c r="C62" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>-Disapproved  Booking Request</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>112</v>
-      </c>
+      <c r="H62" s="19"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="9">
+        <v>52</v>
+      </c>
+      <c r="C63" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>-Approve Booking Request</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="9">
+        <v>53</v>
+      </c>
+      <c r="C64" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>-Disapproved  Booking Request</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="9">
         <v>54</v>
       </c>
-      <c r="C63" s="17" t="str">
-        <f t="shared" si="1"/>
+      <c r="C65" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>-Delete Booking Request</v>
       </c>
-      <c r="D63" s="21" t="s">
-        <v>128</v>
+      <c r="D65" s="20" t="s">
+        <v>132</v>
       </c>
-      <c r="E63" s="19" t="s">
-        <v>112</v>
+      <c r="E65" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="9">
+    <row r="66" spans="1:6">
+      <c r="A66" s="9">
         <v>55</v>
       </c>
-      <c r="C64" s="17" t="str">
-        <f t="shared" si="1"/>
+      <c r="C66" s="16" t="str">
+        <f t="shared" si="2"/>
         <v>-Delete Master  Data</v>
       </c>
-      <c r="D64" s="21" t="s">
-        <v>129</v>
+      <c r="D66" s="20" t="s">
+        <v>133</v>
       </c>
-      <c r="E64" s="19" t="s">
-        <v>130</v>
+      <c r="E66" s="18" t="s">
+        <v>134</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>131</v>
+      <c r="F66" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Doccument/HBS-Screen Function List.xlsx
+++ b/Doccument/HBS-Screen Function List.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$65</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -22,7 +22,7 @@
     <author>HelloU</author>
   </authors>
   <commentList>
-    <comment ref="A58" authorId="0">
+    <comment ref="A57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
   <si>
     <t>Definition</t>
   </si>
@@ -191,12 +191,6 @@
   </si>
   <si>
     <t>Data Authorization Add</t>
-  </si>
-  <si>
-    <t>SYS062</t>
-  </si>
-  <si>
-    <t>Data Authorization Update</t>
   </si>
   <si>
     <t>SYS030</t>
@@ -508,21 +502,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -530,11 +509,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,6 +525,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -554,31 +555,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,11 +593,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -631,10 +608,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -645,6 +623,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -673,7 +667,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,67 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,67 +799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,19 +817,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,6 +890,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -911,15 +914,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -931,6 +925,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,8 +971,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,34 +987,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,130 +1008,130 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1492,7 +1486,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFC66"/>
+  <dimension ref="A1:XFC65"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34349,7 +34343,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f t="shared" ref="C10:C15" si="0">B10&amp;"-"&amp;D10</f>
+        <f t="shared" ref="C10:C26" si="0">B10&amp;"-"&amp;D10</f>
         <v>SYS010-Sign Up</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -34463,7 +34457,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f>B16&amp;"-"&amp;D16</f>
+        <f t="shared" si="0"/>
         <v>SYS020-Home</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -34482,7 +34476,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f>B17&amp;"-"&amp;D17</f>
+        <f t="shared" si="0"/>
         <v>SYS040-Function List</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -34501,7 +34495,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f>B18&amp;"-"&amp;D18</f>
+        <f t="shared" si="0"/>
         <v>SYS041-Fucntion Add</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -34520,7 +34514,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f>B19&amp;"-"&amp;D19</f>
+        <f t="shared" si="0"/>
         <v>SYS042-Function Update</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -34539,7 +34533,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="10" t="str">
-        <f>B20&amp;"-"&amp;D20</f>
+        <f t="shared" si="0"/>
         <v>SYS043-Function Authorization</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -34558,7 +34552,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f>B21&amp;"-"&amp;D21</f>
+        <f t="shared" si="0"/>
         <v>SYS050-User List</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -34577,7 +34571,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f>B22&amp;"-"&amp;D22</f>
+        <f t="shared" si="0"/>
         <v>SYS051-User Add</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -34596,7 +34590,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f>B23&amp;"-"&amp;D23</f>
+        <f t="shared" si="0"/>
         <v>SYS052-User Update</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -34615,7 +34609,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="10" t="str">
-        <f>B24&amp;"-"&amp;D24</f>
+        <f t="shared" si="0"/>
         <v>SYS060-Data Authorization List</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -34634,7 +34628,7 @@
         <v>48</v>
       </c>
       <c r="C25" s="10" t="str">
-        <f>B25&amp;"-"&amp;D25</f>
+        <f t="shared" si="0"/>
         <v>SYS061-Data Authorization Add</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -34649,430 +34643,430 @@
       <c r="A26" s="9">
         <v>17</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="10" t="str">
-        <f>B26&amp;"-"&amp;D26</f>
-        <v>SYS062-Data Authorization Update</v>
+        <f t="shared" ref="C26:C45" si="1">B26&amp;"-"&amp;D26</f>
+        <v>SYS030-System Setting</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:8">
       <c r="A27" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="10" t="str">
-        <f t="shared" ref="C27:C46" si="1">B27&amp;"-"&amp;D27</f>
-        <v>SYS030-System Setting</v>
+        <f t="shared" si="1"/>
+        <v>SYS031-System Information</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:8">
       <c r="A28" s="9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>SYS031-System Information</v>
+        <v>MST010-City List</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H28"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:8">
       <c r="A29" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST010-City List</v>
+        <v>MST011-City Add</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H29"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:8">
       <c r="A30" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST011-City Add</v>
+        <v>MST012-City Update</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H30"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:8">
       <c r="A31" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST012-City Update</v>
+        <v>MST020-District List</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H31"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:8">
       <c r="A32" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST020-District List</v>
+        <v>MST021-District Add</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H32"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:8">
       <c r="A33" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST021-District Add</v>
+        <v>MST022-Dictrict Update</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>66</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H33"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:8">
       <c r="A34" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST022-Dictrict Update</v>
+        <v>MST030-Location List</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H34"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:8">
       <c r="A35" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST030-Location List</v>
+        <v>MST031-Location Add</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H35"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:8">
       <c r="A36" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C36" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST031-Location Add</v>
+        <v>MST032-Location Update</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H36"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:8">
       <c r="A37" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C37" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST032-Location Update</v>
+        <v>MST040-Hotel List</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H37"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:8">
       <c r="A38" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST040-Hotel List</v>
+        <v>MST041-Hotel Add</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H38"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:8">
       <c r="A39" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST041-Hotel Add</v>
+        <v>MST042-Hotel Update</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H39"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:8">
       <c r="A40" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C40" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST042-Hotel Update</v>
+        <v>MST060-Service List</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H40"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:8">
       <c r="A41" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C41" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST060-Service List</v>
+        <v>MST061-Service Add</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H41"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:8">
       <c r="A42" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C42" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST061-Service Add</v>
+        <v>MST062-Service Update</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H42"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:8">
       <c r="A43" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST062-Service Update</v>
+        <v>MST070-Room List</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H43"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:8">
       <c r="A44" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST070-Room List</v>
+        <v>MST071-Room Add</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H44"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:8">
       <c r="A45" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C45" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>MST071-Room Add</v>
+        <v>MST072-Room Update</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H45"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:8">
       <c r="A46" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C46" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>MST072-Room Update</v>
+        <f t="shared" ref="C46:C65" si="2">B46&amp;"-"&amp;D46</f>
+        <v>MST100-Feedback List</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>92</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
-      <c r="H46"/>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:8">
       <c r="A47" s="9">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C47" s="10" t="str">
-        <f t="shared" ref="C47:C66" si="2">B47&amp;"-"&amp;D47</f>
-        <v>MST100-Feedback List</v>
+        <f t="shared" si="2"/>
+        <v>MST101-Feedback Add</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>94</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H47" s="15"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:8">
       <c r="A48" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C48" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>MST101-Feedback Add</v>
+        <v>MST102-Feedback Update</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>96</v>
@@ -35084,189 +35078,190 @@
     </row>
     <row r="49" s="1" customFormat="1" spans="1:8">
       <c r="A49" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C49" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>MST102-Feedback Update</v>
+        <v>TSN010-Booking List</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
-      <c r="H49" s="15"/>
+      <c r="H49"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:8">
       <c r="A50" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>TSN010-Booking List</v>
+        <v>TNS011-Booking Add</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>100</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="H50"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:8">
       <c r="A51" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>TNS011-Booking Add</v>
+        <v>TNS012-Booking Update</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H51"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:8">
       <c r="A52" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>TNS012-Booking Update</v>
+        <v>TNS013-Booking Detail</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H52"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:8">
       <c r="A53" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>TNS013-Booking Detail</v>
+        <v>TNS021-Request List</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="H53"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:8">
       <c r="A54" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>109</v>
       </c>
       <c r="C54" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>TNS021-Request List</v>
+        <v>TNS022-Request Add</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="H54"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:8">
       <c r="A55" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>TNS022-Request Add</v>
+        <v>TNS023-Request Update</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H55"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:8">
       <c r="A56" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C56" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>TNS023-Request Update</v>
+        <v>RPT010-Report By Condition</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:8">
+    <row r="57" s="2" customFormat="1" spans="1:8">
       <c r="A57" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>117</v>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>-Approve Contribute Request</v>
       </c>
-      <c r="C57" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>RPT010-Report By Condition</v>
-      </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H57"/>
+      <c r="F57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H57" s="19"/>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:8">
       <c r="A58" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>-Approve Contribute Request</v>
+        <v>-Disapprove Contribute Request</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>122</v>
@@ -35275,18 +35270,18 @@
     </row>
     <row r="59" s="2" customFormat="1" spans="1:8">
       <c r="A59" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>-Disapprove Contribute Request</v>
+        <v>-Delete Contribute Request</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>123</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>124</v>
@@ -35295,119 +35290,99 @@
     </row>
     <row r="60" s="2" customFormat="1" spans="1:8">
       <c r="A60" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>-Delete Contribute Request</v>
+        <v>-Find Nearby Hotels</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F60" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H60" s="19"/>
     </row>
     <row r="61" s="2" customFormat="1" spans="1:8">
       <c r="A61" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>-Find Nearby Hotels</v>
+        <v>-Direct To Hotels</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>127</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H61" s="19"/>
     </row>
-    <row r="62" s="2" customFormat="1" spans="1:8">
+    <row r="62" spans="1:5">
       <c r="A62" s="9">
-        <v>51</v>
+        <v>53</v>
       </c>
-      <c r="B62" s="16"/>
       <c r="C62" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>-Direct To Hotels</v>
+        <v>-Approve Booking Request</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>129</v>
+      <c r="D62" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
-      <c r="H62" s="19"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C63" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>-Approve Booking Request</v>
+        <v>-Disapproved  Booking Request</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C64" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>-Disapproved  Booking Request</v>
+        <v>-Delete Booking Request</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C65" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>-Delete Booking Request</v>
+        <v>-Delete Master  Data</v>
       </c>
       <c r="D65" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E65" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="9">
-        <v>55</v>
-      </c>
-      <c r="C66" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>-Delete Master  Data</v>
-      </c>
-      <c r="D66" s="20" t="s">
+      <c r="F65" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
